--- a/Prueba_02.xlsx
+++ b/Prueba_02.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INEC\Proyectos\Bayesian_IVOPA_CEPAL\out\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\UNFPA 2024\test\Populorum-Univalle_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE911098-C6A8-4203-A200-B65779ECDBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,21 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,8 +97,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Hoja1"/>
     </sheetNames>
@@ -94,102 +109,102 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>7</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>4</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>19</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>18</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>18</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>8</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>18</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>4</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>20</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>8</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>3</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>19</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>11</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>14</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>11</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>7</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21">
-            <v>5</v>
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
@@ -460,14 +475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -477,121 +492,121 @@
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2">
         <f ca="1">[1]Hoja1!B2</f>
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3">
         <f ca="1">[1]Hoja1!B3</f>
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4">
         <f ca="1">[1]Hoja1!B4</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5">
         <f ca="1">[1]Hoja1!B5</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6">
         <f ca="1">[1]Hoja1!B6</f>
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7">
         <f ca="1">[1]Hoja1!B7</f>
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8">
         <f ca="1">[1]Hoja1!B8</f>
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9">
         <f ca="1">[1]Hoja1!B9</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10">
         <f ca="1">[1]Hoja1!B10</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11">
         <f ca="1">[1]Hoja1!B11</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12">
         <f ca="1">[1]Hoja1!B12</f>
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13">
         <f ca="1">[1]Hoja1!B13</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14">
         <f ca="1">[1]Hoja1!B14</f>
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15">
-        <f ca="1">[1]Hoja1!B15</f>
-        <v>19</v>
+        <f>[1]Hoja1!B15</f>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16">
-        <f ca="1">[1]Hoja1!B16</f>
-        <v>11</v>
+        <f>[1]Hoja1!B16</f>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17">
-        <f ca="1">[1]Hoja1!B17</f>
-        <v>2</v>
+        <f>[1]Hoja1!B17</f>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18">
-        <f ca="1">[1]Hoja1!B18</f>
-        <v>14</v>
+        <f>[1]Hoja1!B18</f>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19">
-        <f ca="1">[1]Hoja1!B19</f>
-        <v>11</v>
+        <f>[1]Hoja1!B19</f>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20">
-        <f ca="1">[1]Hoja1!B20</f>
-        <v>7</v>
+        <f>[1]Hoja1!B20</f>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21">
-        <f ca="1">[1]Hoja1!B21</f>
-        <v>5</v>
+        <f>[1]Hoja1!B21</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Prueba_02.xlsx
+++ b/Prueba_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\UNFPA 2024\test\Populorum-Univalle_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE911098-C6A8-4203-A200-B65779ECDBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888F091-98E1-4A9D-A41D-82174F31E0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,67 +109,67 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>20</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>19</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>6</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>8</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>1</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>2</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>4</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>20</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>11</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>6</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>7</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>18</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="15">
@@ -491,80 +491,80 @@
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2">
-        <f ca="1">[1]Hoja1!B2</f>
-        <v>20</v>
+        <f>[1]Hoja1!B2</f>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3">
-        <f ca="1">[1]Hoja1!B3</f>
-        <v>19</v>
+        <f>[1]Hoja1!B3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4">
-        <f ca="1">[1]Hoja1!B4</f>
-        <v>6</v>
+        <f>[1]Hoja1!B4</f>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5">
-        <f ca="1">[1]Hoja1!B5</f>
-        <v>8</v>
+        <f>[1]Hoja1!B5</f>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6">
-        <f ca="1">[1]Hoja1!B6</f>
-        <v>1</v>
+        <f>[1]Hoja1!B6</f>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7">
-        <f ca="1">[1]Hoja1!B7</f>
-        <v>2</v>
+        <f>[1]Hoja1!B7</f>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8">
-        <f ca="1">[1]Hoja1!B8</f>
-        <v>2</v>
+        <f>[1]Hoja1!B8</f>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9">
-        <f ca="1">[1]Hoja1!B9</f>
-        <v>4</v>
+        <f>[1]Hoja1!B9</f>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10">
-        <f ca="1">[1]Hoja1!B10</f>
-        <v>20</v>
+        <f>[1]Hoja1!B10</f>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11">
-        <f ca="1">[1]Hoja1!B11</f>
-        <v>11</v>
+        <f>[1]Hoja1!B11</f>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12">
-        <f ca="1">[1]Hoja1!B12</f>
-        <v>6</v>
+        <f>[1]Hoja1!B12</f>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13">
-        <f ca="1">[1]Hoja1!B13</f>
-        <v>7</v>
+        <f>[1]Hoja1!B13</f>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14">
-        <f ca="1">[1]Hoja1!B14</f>
-        <v>18</v>
+        <f>[1]Hoja1!B14</f>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
